--- a/medicine/Maladie à coronavirus 2019/CIGB-66/CIGB-66.xlsx
+++ b/medicine/Maladie à coronavirus 2019/CIGB-66/CIGB-66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le CIGB-66, connu sous le nom Abdala, est un candidat vaccin contre la COVID-19 développé par le Centre cubain pour l'ingénierie génétique et la biotechnologie (es) (CIGB) à Cuba[1],[2].
-Ce candidat vaccin, nommé d'après le drame patriotique en vers éponyme[3] écrit par le héros de l'indépendance José Martí, est un vaccin à sous-unité protéique contenant des protéines dérivées de la COVID qui déclenchent une réponse immunitaire[4].
+Le CIGB-66, connu sous le nom Abdala, est un candidat vaccin contre la COVID-19 développé par le Centre cubain pour l'ingénierie génétique et la biotechnologie (es) (CIGB) à Cuba,.
+Ce candidat vaccin, nommé d'après le drame patriotique en vers éponyme écrit par le héros de l'indépendance José Martí, est un vaccin à sous-unité protéique contenant des protéines dérivées de la COVID qui déclenchent une réponse immunitaire.
 Cependant, aucun résultat complet d'essais cliniques n'a été publié pour l'instant.
-Ce candidat fait suite à un précédent nommé CIGB-669 (MAMBISA)[5].
-Le vaccin est l'un des deux essais cubains de vaccins contre la Covid-19 en phase III[6],[7],[8].
+Ce candidat fait suite à un précédent nommé CIGB-669 (MAMBISA).
+Le vaccin est l'un des deux essais cubains de vaccins contre la Covid-19 en phase III.
 </t>
         </is>
       </c>
@@ -518,16 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phase I/II
-Les essais de phase I et II du CIGB-66 ont débuté en juillet 2020[2].
-Phase III
-L'essai de phase III compare 3 doses du vaccin administrées à 0, 14 et 28 jours par rapport à un placebo, le critère principal mesurant la proportion de cas signalés pour chaque groupe 14 jours après la troisième dose.
-L'essai a été enregistré le 18 mars 2021. La première dose fut administrée le 22 mars 2021. Aux environs du 4 avril, les 48 000 participants avaient reçu leur première dose[9],[10], puis les secondes doses ont commencé à être administrées à partir du 5 avril 2021[11],[12].
-Les troisièmes doses ont commencé à être administrées à partir du 19 avril 2021[13],[14],[15].
-Au 1er mai 2021, 97 % des participants initiaux avaient reçu leurs 3 doses, les autres 3% ayant été perdus au cours du processus.
-Étude d'intervention
-124 000 personnes, âgées de 19 à 80 ans, ont reçu 3 doses du vaccin dans le cadre d'une étude d'intervention, avec comme critère principal la mesure de la proportion de cas et de morts pour les vaccinés par rapport à la population non vaccinée[16].
-Une étude d'intervention plus large, se basant sur un total de 441 561 doses administrées, a débuté en mars 2021[17].
+          <t>Phase I/II</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les essais de phase I et II du CIGB-66 ont débuté en juillet 2020.
 </t>
         </is>
       </c>
@@ -553,12 +562,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Efficacité</t>
+          <t>Recherche clinique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le 22 juin 2021, des sources officielles du gouvernement cubain ont annoncé que les résultats d'une étude initiale du Centre Cubain pour l'Ingénierie Génétique et la Biotechnologie a montré que le vaccin, administré en 3 doses espacées de 2 semaines, avait un taux d'efficacité de 92,28% en prévention de la COVID-19. Cette mesure d'efficacité inclut l'infection par la souche initiale du SARS-CoV-2, de même que par les souches mutantes Alpha, Bêta et Gamma[18].
+          <t>Phase III</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'essai de phase III compare 3 doses du vaccin administrées à 0, 14 et 28 jours par rapport à un placebo, le critère principal mesurant la proportion de cas signalés pour chaque groupe 14 jours après la troisième dose.
+L'essai a été enregistré le 18 mars 2021. La première dose fut administrée le 22 mars 2021. Aux environs du 4 avril, les 48 000 participants avaient reçu leur première dose puis les secondes doses ont commencé à être administrées à partir du 5 avril 2021,.
+Les troisièmes doses ont commencé à être administrées à partir du 19 avril 2021.
+Au 1er mai 2021, 97 % des participants initiaux avaient reçu leurs 3 doses, les autres 3% ayant été perdus au cours du processus.
 </t>
         </is>
       </c>
@@ -584,15 +602,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Recherche clinique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étude d'intervention</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">124 000 personnes, âgées de 19 à 80 ans, ont reçu 3 doses du vaccin dans le cadre d'une étude d'intervention, avec comme critère principal la mesure de la proportion de cas et de morts pour les vaccinés par rapport à la population non vaccinée.
+Une étude d'intervention plus large, se basant sur un total de 441 561 doses administrées, a débuté en mars 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIGB-66</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIGB-66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Efficacité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22 juin 2021, des sources officielles du gouvernement cubain ont annoncé que les résultats d'une étude initiale du Centre Cubain pour l'Ingénierie Génétique et la Biotechnologie a montré que le vaccin, administré en 3 doses espacées de 2 semaines, avait un taux d'efficacité de 92,28% en prévention de la COVID-19. Cette mesure d'efficacité inclut l'infection par la souche initiale du SARS-CoV-2, de même que par les souches mutantes Alpha, Bêta et Gamma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIGB-66</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIGB-66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Production en dehors de Cuba</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Vénézuéla a déclaré qu'il produirait le vaccin[19]. Cependant, en date du 2 mai 2021, cette affirmation ne s'était pas encore concrétisée[20].
-L'entreprise d'état EspromedBIO produira le vaccin, mais des « ajustements » sont nécessaires pour démarrer la production[21].
-En avril 2021, Nicolás Maduro a annoncé que la capacité de 2 millions de doses par mois était escomptée vers « août, septembre, environ »[22].
-En juin 2021, le Ministère Vietnamien de la Santé a annoncé que des négociations étaient en cours entre Cuba et le Vietnam pour la production du vaccin Abdala. L'Institut des Vaccins et des Produits Biologiques Médicaux (IVAC) a été désigné comme le point focal pour recevoir le transfert de technologie[23].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Vénézuéla a déclaré qu'il produirait le vaccin. Cependant, en date du 2 mai 2021, cette affirmation ne s'était pas encore concrétisée.
+L'entreprise d'état EspromedBIO produira le vaccin, mais des « ajustements » sont nécessaires pour démarrer la production.
+En avril 2021, Nicolás Maduro a annoncé que la capacité de 2 millions de doses par mois était escomptée vers « août, septembre, environ ».
+En juin 2021, le Ministère Vietnamien de la Santé a annoncé que des négociations étaient en cours entre Cuba et le Vietnam pour la production du vaccin Abdala. L'Institut des Vaccins et des Produits Biologiques Médicaux (IVAC) a été désigné comme le point focal pour recevoir le transfert de technologie.
 </t>
         </is>
       </c>
